--- a/biology/Médecine/Elisabete_Weiderpass/Elisabete_Weiderpass.xlsx
+++ b/biology/Médecine/Elisabete_Weiderpass/Elisabete_Weiderpass.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elisabete Weiderpass-Vainio (née en 1966) est une chercheuse brésilienne sur le cancer qui est directrice du Centre international de recherche sur le cancer depuis 2019. Ses recherches portent sur l'épidémiologie et la prévention du cancer.
 </t>
@@ -511,9 +523,11 @@
           <t>Enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Weiderpass est originaire de Santo André, São Paulo[1]. Dans une interview avec The Lancet, elle a expliqué qu'elle avait grandi dans une famille de la classe ouvrière et qu'il n'était pas clair si elle irait ou non à l'université. Ses parents l'ont encouragée à poursuivre ses études et elle a obtenu une bourse pour étudier la médecine à l'Université fédérale de Pelotas dans le sud du Brésil[1]. Au cours de son diplôme de premier cycle, Weiderpass s'est de plus en plus intéressée à l'épidémiologie et à la santé publique. Elle est restée à l'Université fédérale de Pelotas (en) pour ses études supérieures, où elle a obtenu une maîtrise en épidémiologie[1]. Weiderpass a déménagé à l'Institut Karolinska pour ses études de doctorat, où elle a étudié l'étiologie du cancer de l'endomètre[2] Sa thèse est intitulée « Some hormonal factors in the etiology of endometrial cancer » (1999).  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Weiderpass est originaire de Santo André, São Paulo. Dans une interview avec The Lancet, elle a expliqué qu'elle avait grandi dans une famille de la classe ouvrière et qu'il n'était pas clair si elle irait ou non à l'université. Ses parents l'ont encouragée à poursuivre ses études et elle a obtenu une bourse pour étudier la médecine à l'Université fédérale de Pelotas dans le sud du Brésil. Au cours de son diplôme de premier cycle, Weiderpass s'est de plus en plus intéressée à l'épidémiologie et à la santé publique. Elle est restée à l'Université fédérale de Pelotas (en) pour ses études supérieures, où elle a obtenu une maîtrise en épidémiologie. Weiderpass a déménagé à l'Institut Karolinska pour ses études de doctorat, où elle a étudié l'étiologie du cancer de l'endomètre Sa thèse est intitulée « Some hormonal factors in the etiology of endometrial cancer » (1999).  
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Recherche et carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début des années 2000, Weiderpass a commencé à travailler en Afrique subsaharienne avec le Centre international de recherche sur le cancer[1]. Ces expériences ont inspiré une carrière axée sur la réduction des inégalités dans le diagnostic et le traitement du cancer. Elle a développé et dispensé des programmes de formation pour les médecins et chercheurs africains[1]. Parmi ses étudiants figure Jackson Orem (en), qui est devenu directeur de l'Institut du cancer de l'Ouganda (en)[3]. En 2005, elle est retournée à l'Institut Karolinska, où elle a continué à étudier l'épidémiologie du cancer[1]. Ses recherches portent sur la santé des femmes, avec un accent particulier sur l'identification des facteurs de risque de certaines formes de cancer[4]. Elle était responsable de la Collaboration ougandaise des maladies infectieuses[4]. Weiderpass a découvert que plusieurs facteurs de risque liés au mode de vie, tels que le tabagisme, l'alimentation et l'obésité, peuvent avoir un impact marqué sur la probabilité qu'une personne souffre d'un cancer[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 2000, Weiderpass a commencé à travailler en Afrique subsaharienne avec le Centre international de recherche sur le cancer. Ces expériences ont inspiré une carrière axée sur la réduction des inégalités dans le diagnostic et le traitement du cancer. Elle a développé et dispensé des programmes de formation pour les médecins et chercheurs africains. Parmi ses étudiants figure Jackson Orem (en), qui est devenu directeur de l'Institut du cancer de l'Ouganda (en). En 2005, elle est retournée à l'Institut Karolinska, où elle a continué à étudier l'épidémiologie du cancer. Ses recherches portent sur la santé des femmes, avec un accent particulier sur l'identification des facteurs de risque de certaines formes de cancer. Elle était responsable de la Collaboration ougandaise des maladies infectieuses. Weiderpass a découvert que plusieurs facteurs de risque liés au mode de vie, tels que le tabagisme, l'alimentation et l'obésité, peuvent avoir un impact marqué sur la probabilité qu'une personne souffre d'un cancer. 
 En 2007, Weiderpass a été nommée chef du groupe d'épidémiologie génétique au centre de recherche Folkhälsan à Helsinki, où elle a passé plus de dix ans. Dans le même temps, elle supervisait le Registre du cancer de Norvège, qui est situé à l'Institut de recherche sur le cancer basée sur la population à Oslo, ainsi qu'à l'Université de Tromsø et à l'École de médecine de Yale (en).
-Weiderpass a été élue directrice du Centre international de recherche sur le cancer en 2019[5],[6],[7].  L'agence est basée à Lyon et Weiderpass est la première femme à occuper ce poste[1],[2]. En 2020, elle a lancé le World Cancer Report, qui donne un aperçu de la recherche actuelle sur le cancer et des informations sur les stratégies de prévention du cancer[8]. Elle s'est associée à la Société européenne d'oncologie médicale en 2020, travaillant ensemble pour proposer une série de webinaires et de modules d'apprentissage en ligne axés sur l'élimination du cancer[9]. 
+Weiderpass a été élue directrice du Centre international de recherche sur le cancer en 2019.  L'agence est basée à Lyon et Weiderpass est la première femme à occuper ce poste,. En 2020, elle a lancé le World Cancer Report, qui donne un aperçu de la recherche actuelle sur le cancer et des informations sur les stratégies de prévention du cancer. Elle s'est associée à la Société européenne d'oncologie médicale en 2020, travaillant ensemble pour proposer une série de webinaires et de modules d'apprentissage en ligne axés sur l'élimination du cancer. 
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2017 Fellow de l'Académie européenne des sciences du cancer[10]
-2017 Gansu Foreign Experts Administration Dunhuang Award pour l'expert étranger exceptionnel [10]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2017 Fellow de l'Académie européenne des sciences du cancer
+2017 Gansu Foreign Experts Administration Dunhuang Award pour l'expert étranger exceptionnel </t>
         </is>
       </c>
     </row>
@@ -606,7 +624,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Roger VL, Go AS, Lloyd-Jones DM, Benjamin EJ, Berry JD, Borden WB, Bravata DM, Dai S, Ford ES, Fox CS, Fullerton HJ, Gillespie C, Hailpern SM, Heit JA, Howard VJ, Kissela BM, Kittner SJ, Lackland DT, Lichtman JH, Lisabeth LD, Makuc DM, Marcus GM, Marelli A, Matchar DB, Moy CS, Mozaffarian D, Mussolino ME, Nichol G, Paynter NP, Soliman EZ, Sorlie PD, Sotoodehnia N, Turan TN, Virani SS, Wong ND, Woo D et Turner MB, « Heart disease and stroke statistics--2012 update: a report from the American Heart Association », Circulation, Lippincott Williams &amp; Wilkins (d), vol. 125, no 1,‎ 3 janvier 2012, e2-e220 (ISSN 0009-7322 et 1524-4539, OCLC 1554748, PMID 22179539, PMCID 4440543, DOI 10.1161/CIR.0B013E31823AC046)
 (en) Marie Ng, Tom Fleming, Margaret Robinson, Blake Thomson, Nicholas Graetz, Christopher Margono, Erin C Mullany, Stan Biryukov, Cristiana Abbafati, Semaw Ferede Abera, Jerry P Abraham, Niveen M E Abu-Rmeileh, Tom Achoki, Fadia AlBuhairan, Zewdie A Alemu, Rafael Alfonso, Mohammed K Ali, Raghib Ali, Nelson Alvis Guzman, Walid Ammar, Palwasha Anwari, Amitava Banerjee, Simon Barquera, Sanjay Basu, Derrick A Bennett, Zulfiqar Bhutta, Jed Blore, Norberto Cabral, Ismael Campos Nonato, Jung-Chen Chang, Rajiv Chowdhury, Karen Courville de Vaccaro, Michael H Criqui, David Cundiff, Kaustubh C Dabhadkar, Lalit Dandona, Adrian Davis, Anand Dayama, Samath D Dharmaratne, Eric Ding, Adnan M Durrani, Alireza Esteghamati, Farshad Farzadfar, Derek F J Fay, Valery Feigin, Abraham Flaxman, Mohammad H Forouzanfar, Atsushi Goto, Mark A Green, Rajeev Gupta, Nima Hafezi-Nejad, Graeme J Hankey, Heather C Harewood, Rasmus Havmoeller, Simon I. Hay, Lucia Hernandez, Abdullatif Husseini, Bulat T Idrisov, Nayu Ikeda, Farhad Islami, Eiman Jahangir, Simerjot K Jassal, Sun Ha Jee, Mona Jeffreys, Jost B Jonas, Edmond K Kabagambe, Shams Eldin Ali Hassan Khalifa, Andre P Kengne, Yousef Saleh Khader, Young-Ho Khang, Daniel J Kim, Ruth W Kimokoti, Jonas M Kinge, Yoshihiro Kokubo, Soewarta Kosen, Gene F Kwan, Taavi Lai, Mall Leinsalu, Yichong Li, Xiaofeng Liang, Shiwei Liu, Giancarlo Logroscino, Paulo Andrade Lotufo, Yuan Lu, Jixiang Ma, Nana Kwaku Mainoo, George A Mensah, Tony Merriman, Ali H Mokdad, Joanna Moschandreas, Mohsen Naghavi, Aliya Naheed, Devina Nand, K M Venkat Narayan, Erica Leigh Nelson, Marian L Neuhouser, Muhammad Imran Nisar, Takayoshi Ohkubo, Samuel O Oti, Andrea Pedroza, Dorairaj Prabhakaran, Nobhojit Roy, Uchechukwu Sampson, Hyeyoung Seo, Sadaf G. Sepanlou, Kenji Shibuya, Rahman Shiri, Ivy Shiue, Gitanjali M Singh, Jasvinder A Singh, Vegard Skirbekk, Nicolas J C Stapelberg, Lela Sturua, Bryan L Sykes, Martin Tobias, Bach X Tran, Leonardo Trasande, Hideaki Toyoshima, Steven van de Vijver, Tommi J Vasankari, Lennert Veerman, Gustavo Velasquez-Melendez, Vasily Vlasov, Stein Emil Vollset, Theo Vos, Claire Wang, XiaoRong Wang, Elisabete Weiderpass, Andrea Werdecker, Jonathan L Wright, Y Claire Yang, Hiroshi Yatsuya, Jihyun Yoon, Seok-Jun Yoon, Yong Zhao, Maigeng Zhou, Shankuan Zhu, Alan D Lopez, Christopher J L Murray et Emmanuela Gakidou, « Global, regional, and national prevalence of overweight and obesity in children and adults during 1980-2013: a systematic analysis for the Global Burden of Disease Study 2013 », The Lancet, Elsevier, vol. 384, no 9945,‎ 30 août 2014, p. 766-781 (ISSN 0140-6736 et 1474-547X, OCLC 01755507, PMID 24880830, PMCID 4624264, DOI 10.1016/S0140-6736(14)60460-8)
@@ -638,9 +658,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Weiderpass est une citoyenne naturalisée  suédoise et finlandaise[11] Elle est mariée à Harri Uolevi Vainio, professeur à l' Université du Koweït [12]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Weiderpass est une citoyenne naturalisée  suédoise et finlandaise Elle est mariée à Harri Uolevi Vainio, professeur à l' Université du Koweït . 
 </t>
         </is>
       </c>
